--- a/Nevasa/InformeCompleto/20241219/20241219_informe_completo_results.xlsx
+++ b/Nevasa/InformeCompleto/20241219/20241219_informe_completo_results.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -969,6 +969,126 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>FONDO DE INVERSION NEVASA AHORRO</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>45645</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>45645</v>
+      </c>
+      <c r="D14" t="n">
+        <v>16697.34</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1601</v>
+      </c>
+      <c r="F14" t="n">
+        <v>26732442</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>CFINHRFLA</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>VENTA</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>RENTA VARIABLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>FONDO DE INVERSION NEVASA AHORRO</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>45645</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>45645</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1206.96</v>
+      </c>
+      <c r="E15" t="n">
+        <v>66283</v>
+      </c>
+      <c r="F15" t="n">
+        <v>80000930</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>CFINVRFLI</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>RENTA VARIABLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>FONDO DE INVERSION NEVASA AHORRO</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>45645</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>45645</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1206.96</v>
+      </c>
+      <c r="E16" t="n">
+        <v>28806</v>
+      </c>
+      <c r="F16" t="n">
+        <v>34767689</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>CFINVRFLI</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>VENTA</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>RENTA VARIABLE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
